--- a/exampleProblems/ch9_102/ch9_102.xlsx
+++ b/exampleProblems/ch9_102/ch9_102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_102/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B2D1B82-F9CA-6C4C-B2F7-ECFA1A29C88C}"/>
+  <xr:revisionPtr revIDLastSave="501" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74B785F-9CF8-4F90-BCC7-3DFA434928E9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16560" windowHeight="15040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -167,13 +167,19 @@
   </si>
   <si>
     <t>3.14 .. 3.08</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>NCCc1c[nH]c2ccc(O)cc12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,25 +605,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -633,12 +649,12 @@
       <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -665,7 +681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -694,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -723,7 +739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -752,7 +768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -781,7 +797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -810,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -839,7 +855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -850,7 +866,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -861,7 +877,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -872,7 +888,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -893,13 +909,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -932,7 +948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -964,7 +980,7 @@
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -996,7 +1012,7 @@
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1028,7 +1044,7 @@
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1060,7 +1076,7 @@
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1121,7 +1137,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1134,7 +1150,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1148,7 +1164,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1162,7 +1178,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1176,27 +1192,27 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J15" s="1"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="10:10">
+    <row r="17" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="10:10">
+    <row r="18" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J18" s="1"/>
     </row>
   </sheetData>
@@ -1213,9 +1229,9 @@
       <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1259,7 +1275,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1292,7 +1308,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1325,7 +1341,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1358,7 +1374,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1373,7 +1389,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1388,7 +1404,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1403,7 +1419,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1418,7 +1434,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1433,7 +1449,7 @@
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1448,7 +1464,7 @@
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1463,7 +1479,7 @@
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1478,7 +1494,7 @@
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1493,7 +1509,7 @@
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1508,7 +1524,7 @@
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1523,7 +1539,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1538,7 +1554,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1553,7 +1569,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1577,7 +1593,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1588,7 +1604,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1599,7 +1615,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1610,7 +1626,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1621,7 +1637,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1632,7 +1648,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1643,7 +1659,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1654,7 +1670,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1665,7 +1681,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1676,7 +1692,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1687,7 +1703,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1698,7 +1714,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1709,7 +1725,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1720,7 +1736,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1731,7 +1747,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1742,7 +1758,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1753,7 +1769,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1778,9 +1794,9 @@
       <selection activeCell="G2" sqref="G2:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="24">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -1824,7 +1840,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1843,7 +1859,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1862,7 +1878,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1881,7 +1897,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1900,7 +1916,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1919,7 +1935,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1938,7 +1954,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1957,7 +1973,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1976,7 +1992,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1995,7 +2011,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2014,7 +2030,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2033,7 +2049,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2052,7 +2068,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2071,7 +2087,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2090,7 +2106,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2109,7 +2125,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2128,7 +2144,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -2147,7 +2163,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2160,7 +2176,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2173,7 +2189,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2186,7 +2202,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2199,7 +2215,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2212,7 +2228,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2225,7 +2241,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2238,7 +2254,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2251,7 +2267,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2264,7 +2280,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2277,7 +2293,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2290,7 +2306,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2303,7 +2319,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2316,7 +2332,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2329,7 +2345,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2342,7 +2358,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2355,7 +2371,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2368,7 +2384,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2381,7 +2397,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2394,7 +2410,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2407,7 +2423,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2420,7 +2436,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2433,7 +2449,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2446,7 +2462,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2459,7 +2475,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2472,7 +2488,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2485,7 +2501,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2510,7 +2526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2524,9 +2540,9 @@
       <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2553,7 +2569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2578,7 +2594,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2603,7 +2619,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2628,7 +2644,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2653,7 +2669,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2678,7 +2694,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2703,7 +2719,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2728,7 +2744,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2753,7 +2769,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2778,7 +2794,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2803,7 +2819,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2814,7 +2830,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2825,7 +2841,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2836,7 +2852,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2861,9 +2877,9 @@
       <selection activeCell="B2" sqref="B2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>9</v>
@@ -2890,7 +2906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2915,7 +2931,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2940,7 +2956,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2965,7 +2981,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2990,7 +3006,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3015,7 +3031,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3040,7 +3056,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3051,7 +3067,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3062,7 +3078,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3073,7 +3089,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>

--- a/exampleProblems/ch9_102/ch9_102.xlsx
+++ b/exampleProblems/ch9_102/ch9_102.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_102/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="501" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74B785F-9CF8-4F90-BCC7-3DFA434928E9}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="11_00A1A350F4408A0B74C6EA39254A55E76ED7003F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CEE79F8-A7AA-473C-B576-2A63625C257F}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="1650" windowWidth="23880" windowHeight="13620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet1" sheetId="10" r:id="rId6"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId7"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId8"/>
+    <sheet name="NOESY" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -293,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -320,9 +321,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -607,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -909,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +957,7 @@
         <v>25.4</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E2" s="1">
         <v>10.63</v>
@@ -991,7 +989,7 @@
         <v>42.4</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="1">
         <v>10.63</v>
@@ -1077,7 +1075,7 @@
       <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1226,7 +1224,7 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3099,6 +3097,54 @@
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C57289-85C4-5D4B-A106-1880D7EC299A}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3359,16 +3405,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
